--- a/Aug 2019 to Sep 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Aug 2019 to Sep 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7F5BF0-D6C3-472E-82CB-630DACCFB0FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B69DE-FF84-4A02-923D-053FC81F6463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,19 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="156">
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>File 1 Value</t>
-  </si>
-  <si>
-    <t>File 2 Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="155">
   <si>
     <t>Comment</t>
   </si>
@@ -491,6 +479,15 @@
   </si>
   <si>
     <t>Network previously in an Addon is now part of base Service</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Old Value</t>
+  </si>
+  <si>
+    <t>New Value</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1339,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1356,789 +1353,786 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -2146,994 +2140,997 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>111</v>
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" t="s">
-        <v>117</v>
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>131</v>
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>134</v>
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" t="s">
         <v>143</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>143</v>
-      </c>
-      <c r="E90" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>138</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>139</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>77</v>
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>87</v>
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E99" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E102" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E103" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E104" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E107" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>142</v>
       </c>
       <c r="E108" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E110" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E112" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D113" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E113" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D115" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E115" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E118" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="E119" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E119" xr:uid="{C22D153C-55A1-478B-8D5F-01AF32BAD411}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E119">
       <sortCondition ref="B2:B119"/>
+      <sortCondition ref="A2:A119"/>
       <sortCondition ref="E2:E119"/>
-      <sortCondition ref="A2:A119"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Aug 2019 to Sep 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Aug 2019 to Sep 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B69DE-FF84-4A02-923D-053FC81F6463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7756CFA-598B-4E37-8888-8EDEE0D2B320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="158">
   <si>
     <t>Comment</t>
   </si>
@@ -454,33 +454,6 @@
     <t>Zona Futbol New</t>
   </si>
   <si>
-    <t>New Network added to Database in Sep 2019</t>
-  </si>
-  <si>
-    <t>New *special* "Non-Network" added to Database in Sep 2019</t>
-  </si>
-  <si>
-    <t>Previous Network removed form the Database in Sep 2019</t>
-  </si>
-  <si>
-    <t>New Network Alias recordedin Database in Sep 2019</t>
-  </si>
-  <si>
-    <t>Network Category changed</t>
-  </si>
-  <si>
-    <t>Network was removed from Service in Sep 2019</t>
-  </si>
-  <si>
-    <t>Network is now part of a new or renamed Addon within the Service</t>
-  </si>
-  <si>
-    <t>Network was added to base Service in Sep 2019</t>
-  </si>
-  <si>
-    <t>Network previously in an Addon is now part of base Service</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -488,6 +461,42 @@
   </si>
   <si>
     <t>New Value</t>
+  </si>
+  <si>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Network Category Classification Changed</t>
+  </si>
+  <si>
+    <t>Network Moved from One Add-On Package to Another Add-On Package</t>
+  </si>
+  <si>
+    <t>New Special Network Added to Database</t>
+  </si>
+  <si>
+    <t>New Network Added to Database</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>Network Moved from Add-On Package to Base Service</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Moved from Base Service to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
   </si>
 </sst>
 </file>
@@ -1356,13 +1365,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1500,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1514,7 +1523,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1528,7 +1537,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1542,7 +1551,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1556,7 +1565,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1570,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1587,7 +1596,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1604,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1618,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1632,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1646,7 +1655,7 @@
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1663,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1680,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1697,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1711,7 +1720,7 @@
         <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1725,7 +1734,7 @@
         <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1739,7 +1748,7 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1756,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1770,7 +1779,7 @@
         <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1784,7 +1793,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1798,7 +1807,7 @@
         <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1815,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1832,7 +1841,7 @@
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1849,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1866,7 +1875,7 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1883,7 +1892,7 @@
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1900,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1917,7 +1926,7 @@
         <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1934,7 +1943,7 @@
         <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1951,7 +1960,7 @@
         <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1968,7 +1977,7 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1985,7 +1994,7 @@
         <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -2002,7 +2011,7 @@
         <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -2019,7 +2028,7 @@
         <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -2036,7 +2045,7 @@
         <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -2053,7 +2062,7 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -2070,7 +2079,7 @@
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -2084,7 +2093,7 @@
         <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -2098,7 +2107,7 @@
         <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -2115,7 +2124,7 @@
         <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -2132,7 +2141,7 @@
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -2149,7 +2158,7 @@
         <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -2163,7 +2172,7 @@
         <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2177,7 +2186,7 @@
         <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2191,7 +2200,7 @@
         <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2205,7 +2214,7 @@
         <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -2219,7 +2228,7 @@
         <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2233,7 +2242,7 @@
         <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2247,7 +2256,7 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2261,7 +2270,7 @@
         <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2275,7 +2284,7 @@
         <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2289,7 +2298,7 @@
         <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2303,7 +2312,7 @@
         <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2317,7 +2326,7 @@
         <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2331,7 +2340,7 @@
         <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2345,7 +2354,7 @@
         <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -2359,7 +2368,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -2373,7 +2382,7 @@
         <v>114</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -2387,7 +2396,7 @@
         <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -2401,7 +2410,7 @@
         <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -2415,7 +2424,7 @@
         <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -2429,7 +2438,7 @@
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -2443,7 +2452,7 @@
         <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -2457,7 +2466,7 @@
         <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -2471,7 +2480,7 @@
         <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -2485,7 +2494,7 @@
         <v>121</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -2499,7 +2508,7 @@
         <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -2513,7 +2522,7 @@
         <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -2527,7 +2536,7 @@
         <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -2541,7 +2550,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -2555,7 +2564,7 @@
         <v>124</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -2569,7 +2578,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -2583,7 +2592,7 @@
         <v>125</v>
       </c>
       <c r="E82" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -2597,7 +2606,7 @@
         <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -2611,7 +2620,7 @@
         <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -2625,7 +2634,7 @@
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2639,7 +2648,7 @@
         <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -2653,7 +2662,7 @@
         <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -2667,7 +2676,7 @@
         <v>131</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -2681,7 +2690,7 @@
         <v>132</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
@@ -2695,7 +2704,7 @@
         <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -2709,7 +2718,7 @@
         <v>134</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -2723,7 +2732,7 @@
         <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -2737,7 +2746,7 @@
         <v>136</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -2751,7 +2760,7 @@
         <v>137</v>
       </c>
       <c r="E94" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -2765,7 +2774,7 @@
         <v>138</v>
       </c>
       <c r="E95" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -2779,7 +2788,7 @@
         <v>139</v>
       </c>
       <c r="E96" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
@@ -2793,7 +2802,7 @@
         <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -2807,7 +2816,7 @@
         <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -2821,7 +2830,7 @@
         <v>99</v>
       </c>
       <c r="E99" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -2835,7 +2844,7 @@
         <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
@@ -2849,7 +2858,7 @@
         <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
@@ -2863,7 +2872,7 @@
         <v>54</v>
       </c>
       <c r="E102" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
@@ -2877,7 +2886,7 @@
         <v>55</v>
       </c>
       <c r="E103" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
@@ -2891,7 +2900,7 @@
         <v>56</v>
       </c>
       <c r="E104" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -2905,7 +2914,7 @@
         <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
@@ -2919,7 +2928,7 @@
         <v>58</v>
       </c>
       <c r="E106" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
@@ -2933,7 +2942,7 @@
         <v>59</v>
       </c>
       <c r="E107" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
@@ -2947,7 +2956,7 @@
         <v>142</v>
       </c>
       <c r="E108" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
@@ -2961,7 +2970,7 @@
         <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
@@ -2978,7 +2987,7 @@
         <v>65</v>
       </c>
       <c r="E110" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
@@ -2995,7 +3004,7 @@
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
@@ -3012,7 +3021,7 @@
         <v>65</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -3029,7 +3038,7 @@
         <v>64</v>
       </c>
       <c r="E113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -3043,7 +3052,7 @@
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
@@ -3060,7 +3069,7 @@
         <v>64</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
@@ -3074,7 +3083,7 @@
         <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
@@ -3088,7 +3097,7 @@
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
@@ -3105,7 +3114,7 @@
         <v>80</v>
       </c>
       <c r="E118" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -3122,17 +3131,11 @@
         <v>101</v>
       </c>
       <c r="E119" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E119" xr:uid="{C22D153C-55A1-478B-8D5F-01AF32BAD411}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E119">
-      <sortCondition ref="B2:B119"/>
-      <sortCondition ref="A2:A119"/>
-      <sortCondition ref="E2:E119"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E119" xr:uid="{C8EC6494-BF35-4263-BCD1-00BD064DFD16}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>